--- a/GameConfig/level.xlsx
+++ b/GameConfig/level.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803CE880-BC84-4C50-B9F4-4B1CC10D5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595C335-4D39-4754-BFCD-B1A05383FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,20 @@
   </si>
   <si>
     <t>bgm_238002</t>
+  </si>
+  <si>
+    <t>开炮特效音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248011</t>
+  </si>
+  <si>
+    <t>effect_248012</t>
   </si>
 </sst>
 </file>
@@ -172,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -307,11 +321,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -324,28 +369,37 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -636,70 +690,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="59.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="15.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="59.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameConfig/level.xlsx
+++ b/GameConfig/level.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595C335-4D39-4754-BFCD-B1A05383FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,24 +97,29 @@
     <t>bgm_238002</t>
   </si>
   <si>
-    <t>开炮特效音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gunSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_248011</t>
-  </si>
-  <si>
-    <t>effect_248012</t>
+    <t>加农炮id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,24 +685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="5" customWidth="1"/>
+    <col min="1" max="2" width="15.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="59.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -712,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -726,12 +730,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>2</v>
@@ -740,24 +744,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>

--- a/GameConfig/level.xlsx
+++ b/GameConfig/level.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81188E2-4628-4196-AE60-F4B9E6A22148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +116,31 @@
   <si>
     <t>cannon_91002</t>
   </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_3001;monster_3002;monster_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_3001;monster_3002;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,50 +338,66 @@
         <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -388,13 +425,16 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,94 +725,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="15.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameConfig/level.xlsx
+++ b/GameConfig/level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81188E2-4628-4196-AE60-F4B9E6A22148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,15 +34,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>level_11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_11002</t>
+  </si>
+  <si>
+    <t>关卡BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_238001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgmId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_238002</t>
+  </si>
+  <si>
+    <t>加农炮id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91002</t>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_3001;monster_3002;monster_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_3001;monster_3002;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一行写字段注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二行写字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,7 +109,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -63,7 +120,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -76,72 +133,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_11002</t>
-  </si>
-  <si>
-    <t>关卡BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_238001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgmId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_238002</t>
-  </si>
-  <si>
-    <t>加农炮id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannonId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannon_91001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannon_91002</t>
-  </si>
-  <si>
-    <t>怪物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_3001;monster_3002;monster_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_3001;monster_3002;</t>
+    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -175,16 +191,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -211,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -252,19 +260,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
@@ -397,53 +392,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,113 +728,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="5" customWidth="1"/>
+    <col min="1" max="2" width="15.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="89.375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="89.375" style="17"/>
+    <col min="2" max="16384" width="89.375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+    </row>
+    <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>